--- a/biology/Botanique/Belle-Fille_Normande/Belle-Fille_Normande.xlsx
+++ b/biology/Botanique/Belle-Fille_Normande/Belle-Fille_Normande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Belle-Fille Normande est un cultivar de pommier domestique.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pomme serait née en 1750, dans le Pays de Caux, en Normandie, et en Seine-Maritime, France[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pomme serait née en 1750, dans le Pays de Caux, en Normandie, et en Seine-Maritime, France.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Belle-Fille du pays de Caux.
 Dameret (d'Aumale).
 De Livre (nom tiré de la grosseur du fruit, ne pas confondre avec "Une Livre" qui n'est pas la même variété).
-De Damoiselle[1],[2].</t>
+De Damoiselle,.</t>
         </is>
       </c>
     </row>
@@ -577,32 +593,186 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fruit
-Usage : à couteau.
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Usage : à couteau.
 Calibre : : la pomme est très grosse, voire considérable.
 Epicarpe : uni, jaune brillant, lavé de rose clair sur la partie au soleil, maculé de fauve verdâtre autour du pédoncule et couvert de larges points roux.
-Chair :  blanche[1].
-Arbre
-Bois de force moyenne, rameaux nombreux et assez gros, un peu courts, étalés, très-géniculés, duveteux , brun verdâtre nuancé de rouge.
+Chair :  blanche.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Belle-Fille_Normande</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle-Fille_Normande</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bois de force moyenne, rameaux nombreux et assez gros, un peu courts, étalés, très-géniculés, duveteux , brun verdâtre nuancé de rouge.
 Lenticelles arrondies, larges et abondantes, coussinets bien accusés.
 Yeux moyens, coniques-arrondis, collés en partie sur l’écorce et ayant les écailles saillantes.
-Feuilles très grandes, minces, ovales, vert clair brillant en dessus, blanc verdâtre en dessous, sensiblement ondulées, à bords assez profondément dentés[1].
+Feuilles très grandes, minces, ovales, vert clair brillant en dessus, blanc verdâtre en dessous, sensiblement ondulées, à bords assez profondément dentés.
 Pétiole blanc jaunâtre, nuancé de rose à la base, long, bien nourri, mais peu rigide et rarement très-cannelé.
-Stipules modérément développées[1].
+Stipules modérément développées.
 De médiocre fertilité, l'arbre croît trop lentement pour toujours le destiner à la haute-tige. 
-En le greffant au ras de terre, comme gobelet ou cordon, il est d’un bien meilleur rapport, surtout écussonné sur doucin, où il fait des pommiers nains[1].
-Pollinisation
-Groupe de floraison: B[3].
+En le greffant au ras de terre, comme gobelet ou cordon, il est d’un bien meilleur rapport, surtout écussonné sur doucin, où il fait des pommiers nains.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Belle-Fille_Normande</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle-Fille_Normande</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pollinisation</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Groupe de floraison: B.
 S-génotype: ???
-Pollinisateurs: ???
-Maladies
-Tavelure: ???
+Pollinisateurs: ???</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Belle-Fille_Normande</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle-Fille_Normande</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tavelure: ???
 Mildiou : ???
 Feu bactérien: ???
 Rouille: ???
-Pucerons: ???
-Culture
-Vigueur du cultivar: ???
+Pucerons: ???</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Belle-Fille_Normande</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle-Fille_Normande</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Vigueur du cultivar: ???
 Cueillette: octobre
 Conservation: ???</t>
         </is>
